--- a/webscraping-project.xlsx
+++ b/webscraping-project.xlsx
@@ -591,12 +591,12 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Coin</t>
+          <t>Currency</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Current Value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>$29,532.59</t>
+          <t>$29,725.41</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.75%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>$1,996.01</t>
+          <t>$2,005.38</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>6.29%</t>
+          <t>6.66%</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>$328.58</t>
+          <t>$330.13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1.28%</t>
+          <t>1.58%</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>$0.46946378</t>
+          <t>$0.47035012</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>1.71%</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>$0.39353300</t>
+          <t>$0.39601200</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>1.77%</t>
         </is>
       </c>
     </row>

--- a/webscraping-project.xlsx
+++ b/webscraping-project.xlsx
@@ -281,6 +281,131 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9753600" cy="9753600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2286000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -573,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,6 +815,91 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$0.08049030</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$1.01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$23.24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Polkadot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$5.91</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Litecoin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$89.02</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
